--- a/1 - Data Entry/Labor Force Survey/Menu/Staff.xlsx
+++ b/1 - Data Entry/Labor Force Survey/Menu/Staff.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josh\Documents\cspro\Workshops\Geneva Sept 2017\apps\PopstanLFS\Menu\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCE7917-451B-4912-B10D-C2F755AF8F5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
@@ -143,7 +139,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -455,21 +451,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -480,7 +474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -491,7 +485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -502,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -513,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -524,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
